--- a/reconstruction-tools-assessment/supplementary material/S6_table.xlsx
+++ b/reconstruction-tools-assessment/supplementary material/S6_table.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16729"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Research_Projects\Review_reconstruction\manuscript\supplementary material\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166CA388-B98D-4BD8-BECC-A932808573EE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9402"/>
+    <workbookView xWindow="2700" yWindow="1764" windowWidth="17280" windowHeight="9444" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S6 Table" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -169,7 +175,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -543,11 +549,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B32"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -593,25 +599,25 @@
         <v>4</v>
       </c>
       <c r="B4" s="4">
-        <v>0.42949907235621498</v>
+        <v>0.48030739673390999</v>
       </c>
       <c r="C4" s="4">
-        <v>0.66304347826086951</v>
+        <v>0.76732673267326701</v>
       </c>
       <c r="D4" s="4">
-        <v>1.8045977011494256</v>
+        <v>1.8045977011494301</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ref="E4:E30" si="0">B4-C4</f>
-        <v>-0.23354440590465453</v>
+        <v>-0.28701933593935702</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ref="F4:F30" si="1">C4-D4</f>
-        <v>-1.1415542228885562</v>
+        <v>-1.0372709684761632</v>
       </c>
       <c r="G4" s="5">
         <f>B4-D4</f>
-        <v>-1.3750986287932108</v>
+        <v>-1.3242903044155201</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -619,25 +625,25 @@
         <v>5</v>
       </c>
       <c r="B5" s="4">
-        <v>0.41935483870967738</v>
+        <v>0.46802594995366098</v>
       </c>
       <c r="C5" s="4">
-        <v>0.64381520119225044</v>
+        <v>0.742496050552923</v>
       </c>
       <c r="D5" s="4">
-        <v>1.905511811023622</v>
+        <v>1.90551181102362</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" si="0"/>
-        <v>-0.22446036248257306</v>
+        <v>-0.27447010059926202</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" si="1"/>
-        <v>-1.2616966098313716</v>
+        <v>-1.163015760470697</v>
       </c>
       <c r="G5" s="5">
         <f t="shared" ref="G5:G32" si="2">B5-D5</f>
-        <v>-1.4861569723139447</v>
+        <v>-1.437485861069959</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -645,25 +651,25 @@
         <v>6</v>
       </c>
       <c r="B6" s="4">
-        <v>4.2674418604651168</v>
+        <v>4.3</v>
       </c>
       <c r="C6" s="4">
-        <v>6.1486486486486482</v>
+        <v>6.8461538461538503</v>
       </c>
       <c r="D6" s="4">
-        <v>12.161290322580644</v>
+        <v>11.133333333333301</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" si="0"/>
-        <v>-1.8812067881835315</v>
+        <v>-2.5461538461538504</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" si="1"/>
-        <v>-6.0126416739319959</v>
+        <v>-4.2871794871794506</v>
       </c>
       <c r="G6" s="5">
         <f t="shared" si="2"/>
-        <v>-7.8938484621155274</v>
+        <v>-6.8333333333333011</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -671,25 +677,25 @@
         <v>7</v>
       </c>
       <c r="B7" s="4">
-        <v>1.2930513595166162</v>
+        <v>1.16239316239316</v>
       </c>
       <c r="C7" s="4">
-        <v>1.3501326259946951</v>
+        <v>1.24303797468354</v>
       </c>
       <c r="D7" s="4">
-        <v>3.9035087719298249</v>
+        <v>3.9035087719298298</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" si="0"/>
-        <v>-5.7081266478078874E-2</v>
+        <v>-8.0644812290380008E-2</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" si="1"/>
-        <v>-2.5533761459351298</v>
+        <v>-2.6604707972462895</v>
       </c>
       <c r="G7" s="5">
         <f t="shared" si="2"/>
-        <v>-2.6104574124132087</v>
+        <v>-2.7411156095366698</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -697,25 +703,25 @@
         <v>8</v>
       </c>
       <c r="B8" s="4">
-        <v>0.65372670807453415</v>
+        <v>0.62595419847328304</v>
       </c>
       <c r="C8" s="4">
-        <v>0.67819148936170215</v>
+        <v>0.68042609853528602</v>
       </c>
       <c r="D8" s="4">
-        <v>2.2465116279069766</v>
+        <v>2.2465116279069801</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="0"/>
-        <v>-2.4464781287168003E-2</v>
+        <v>-5.4471900062002976E-2</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="1"/>
-        <v>-1.5683201385452743</v>
+        <v>-1.5660855293716942</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="2"/>
-        <v>-1.5927849198324424</v>
+        <v>-1.6205574294336971</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -723,25 +729,25 @@
         <v>9</v>
       </c>
       <c r="B9" s="4">
-        <v>0.82718120805369122</v>
+        <v>4.9866666666666699</v>
       </c>
       <c r="C9" s="4">
-        <v>0.94927536231884069</v>
+        <v>6.7352941176470598</v>
       </c>
       <c r="D9" s="4">
-        <v>3.1864406779661016</v>
+        <v>13.1612903225806</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" si="0"/>
-        <v>-0.12209415426514947</v>
+        <v>-1.7486274509803899</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="1"/>
-        <v>-2.2371653156472608</v>
+        <v>-6.42599620493354</v>
       </c>
       <c r="G9" s="5">
         <f t="shared" si="2"/>
-        <v>-2.3592594699124105</v>
+        <v>-8.1746236559139298</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -749,25 +755,25 @@
         <v>10</v>
       </c>
       <c r="B10" s="4">
-        <v>4.6124999999999998</v>
+        <v>0.89048473967684005</v>
       </c>
       <c r="C10" s="4">
-        <v>6.3661971830985911</v>
+        <v>1.0193423597678899</v>
       </c>
       <c r="D10" s="4">
-        <v>13.161290322580646</v>
+        <v>3.1864406779660999</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" si="0"/>
-        <v>-1.7536971830985912</v>
+        <v>-0.12885762009104984</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" si="1"/>
-        <v>-6.7950931394820548</v>
+        <v>-2.1670983181982102</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" si="2"/>
-        <v>-8.548790322580647</v>
+        <v>-2.2959559382892598</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -775,25 +781,25 @@
         <v>11</v>
       </c>
       <c r="B11" s="4">
-        <v>0.35143979057591623</v>
+        <v>0.36198791134989899</v>
       </c>
       <c r="C11" s="4">
-        <v>0.40801186943620177</v>
+        <v>0.42257818459191498</v>
       </c>
       <c r="D11" s="4">
-        <v>1.6469072164948453</v>
+        <v>1.6259541984732799</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" si="0"/>
-        <v>-5.6572078860285535E-2</v>
+        <v>-6.0590273242015991E-2</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="1"/>
-        <v>-1.2388953470586435</v>
+        <v>-1.2033760138813649</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="2"/>
-        <v>-1.2954674259189289</v>
+        <v>-1.263966287123381</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -801,25 +807,25 @@
         <v>12</v>
       </c>
       <c r="B12" s="4">
-        <v>0.46254071661237783</v>
+        <v>0.50671140939597303</v>
       </c>
       <c r="C12" s="4">
-        <v>0.55030487804878048</v>
+        <v>0.61942675159235705</v>
       </c>
       <c r="D12" s="4">
-        <v>2.806201550387597</v>
+        <v>2.8062015503876001</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" si="0"/>
-        <v>-8.7764161436402643E-2</v>
+        <v>-0.11271534219638402</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="1"/>
-        <v>-2.2558966723388165</v>
+        <v>-2.1867747987952431</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" si="2"/>
-        <v>-2.3436608337752194</v>
+        <v>-2.2994901409916269</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -827,25 +833,25 @@
         <v>13</v>
       </c>
       <c r="B13" s="4">
-        <v>0.34511189634864553</v>
+        <v>0.37424789410349002</v>
       </c>
       <c r="C13" s="4">
-        <v>0.42505854800936771</v>
+        <v>0.47336561743341399</v>
       </c>
       <c r="D13" s="4">
-        <v>2.806201550387597</v>
+        <v>2.8062015503876001</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" si="0"/>
-        <v>-7.9946651660722179E-2</v>
+        <v>-9.9117723329923968E-2</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="1"/>
-        <v>-2.3811430023782294</v>
+        <v>-2.3328359329541861</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" si="2"/>
-        <v>-2.4610896540389513</v>
+        <v>-2.4319536562841102</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -853,25 +859,25 @@
         <v>14</v>
       </c>
       <c r="B14" s="4">
-        <v>0.56716417910447769</v>
+        <v>0.59436008676789598</v>
       </c>
       <c r="C14" s="4">
-        <v>0.62478184991273999</v>
+        <v>0.67446043165467595</v>
       </c>
       <c r="D14" s="4">
-        <v>2.806201550387597</v>
+        <v>2.8062015503876001</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" si="0"/>
-        <v>-5.76176708082623E-2</v>
+        <v>-8.0100344886779973E-2</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="1"/>
-        <v>-2.1814197004748568</v>
+        <v>-2.1317411187329243</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" si="2"/>
-        <v>-2.2390373712831195</v>
+        <v>-2.2118414636197041</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -879,25 +885,25 @@
         <v>15</v>
       </c>
       <c r="B15" s="4">
-        <v>0.57048458149779735</v>
+        <v>0.59865470852017899</v>
       </c>
       <c r="C15" s="4">
-        <v>0.63120567375886527</v>
+        <v>0.678832116788321</v>
       </c>
       <c r="D15" s="4">
-        <v>2.806201550387597</v>
+        <v>2.8062015503876001</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" si="0"/>
-        <v>-6.0721092261067922E-2</v>
+        <v>-8.0177408268142014E-2</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="1"/>
-        <v>-2.1749958766287318</v>
+        <v>-2.127369433599279</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" si="2"/>
-        <v>-2.2357169688897995</v>
+        <v>-2.2075468418674209</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -905,25 +911,25 @@
         <v>16</v>
       </c>
       <c r="B16" s="4">
-        <v>0.46178861788617886</v>
+        <v>0.50586264656616398</v>
       </c>
       <c r="C16" s="4">
-        <v>0.55030487804878048</v>
+        <v>0.61942675159235705</v>
       </c>
       <c r="D16" s="4">
-        <v>2.806201550387597</v>
+        <v>2.8062015503876001</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" si="0"/>
-        <v>-8.8516260162601612E-2</v>
+        <v>-0.11356410502619307</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="1"/>
-        <v>-2.2558966723388165</v>
+        <v>-2.1867747987952431</v>
       </c>
       <c r="G16" s="5">
         <f t="shared" si="2"/>
-        <v>-2.344412932501418</v>
+        <v>-2.3003389038214364</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -931,25 +937,25 @@
         <v>17</v>
       </c>
       <c r="B17" s="4">
-        <v>0.44965675057208238</v>
+        <v>0.48534583821805399</v>
       </c>
       <c r="C17" s="4">
-        <v>0.46727898966704939</v>
+        <v>0.52568697729988101</v>
       </c>
       <c r="D17" s="4">
-        <v>2.072289156626506</v>
+        <v>2.0640000000000001</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" si="0"/>
-        <v>-1.7622239094967018E-2</v>
+        <v>-4.0341139081827015E-2</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" si="1"/>
-        <v>-1.6050101669594565</v>
+        <v>-1.5383130227001192</v>
       </c>
       <c r="G17" s="5">
         <f t="shared" si="2"/>
-        <v>-1.6226324060544237</v>
+        <v>-1.5786541617819461</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -957,25 +963,25 @@
         <v>18</v>
       </c>
       <c r="B18" s="4">
-        <v>0.48110831234256923</v>
+        <v>0.52134540750323399</v>
       </c>
       <c r="C18" s="4">
-        <v>0.47681331747919142</v>
+        <v>0.53779429987608396</v>
       </c>
       <c r="D18" s="4">
-        <v>2.072289156626506</v>
+        <v>2.0640000000000001</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" si="0"/>
-        <v>4.2949948633778101E-3</v>
+        <v>-1.6448892372849966E-2</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="1"/>
-        <v>-1.5954758391473147</v>
+        <v>-1.5262057001239162</v>
       </c>
       <c r="G18" s="5">
         <f t="shared" si="2"/>
-        <v>-1.5911808442839368</v>
+        <v>-1.5426545924967661</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -983,25 +989,25 @@
         <v>19</v>
       </c>
       <c r="B19" s="4">
-        <v>0.50340136054421769</v>
+        <v>0.58422939068100399</v>
       </c>
       <c r="C19" s="4">
-        <v>0.63414634146341464</v>
+        <v>0.73575129533678796</v>
       </c>
       <c r="D19" s="4">
-        <v>2.9155844155844157</v>
+        <v>2.9155844155844202</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" si="0"/>
-        <v>-0.13074498091919695</v>
+        <v>-0.15152190465578397</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="1"/>
-        <v>-2.281438074121001</v>
+        <v>-2.1798331202476322</v>
       </c>
       <c r="G19" s="5">
         <f t="shared" si="2"/>
-        <v>-2.4121830550401979</v>
+        <v>-2.3313550249034161</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1009,25 +1015,25 @@
         <v>20</v>
       </c>
       <c r="B20" s="4">
-        <v>0.50505050505050508</v>
+        <v>0.58510638297872297</v>
       </c>
       <c r="C20" s="4">
-        <v>0.63577235772357721</v>
+        <v>0.73747841105354095</v>
       </c>
       <c r="D20" s="4">
-        <v>2.8417721518987342</v>
+        <v>2.8417721518987298</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" si="0"/>
-        <v>-0.13072185267307213</v>
+        <v>-0.15237202807481798</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" si="1"/>
-        <v>-2.205999794175157</v>
+        <v>-2.1042937408451889</v>
       </c>
       <c r="G20" s="5">
         <f t="shared" si="2"/>
-        <v>-2.336721646848229</v>
+        <v>-2.2566657689200067</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1035,25 +1041,25 @@
         <v>21</v>
       </c>
       <c r="B21" s="4">
-        <v>0.54197080291970801</v>
+        <v>0.63127413127413101</v>
       </c>
       <c r="C21" s="4">
-        <v>0.67409948542024023</v>
+        <v>0.78427787934186499</v>
       </c>
       <c r="D21" s="4">
         <v>2.7749999999999999</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" si="0"/>
-        <v>-0.13212868250053222</v>
+        <v>-0.15300374806773398</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" si="1"/>
-        <v>-2.1009005145797595</v>
+        <v>-1.9907221206581349</v>
       </c>
       <c r="G21" s="5">
         <f t="shared" si="2"/>
-        <v>-2.2330291970802918</v>
+        <v>-2.1437258687258689</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1061,25 +1067,25 @@
         <v>22</v>
       </c>
       <c r="B22" s="4">
-        <v>0.50309597523219807</v>
+        <v>0.57629870129870098</v>
       </c>
       <c r="C22" s="4">
-        <v>0.6038863976083706</v>
+        <v>0.697784810126582</v>
       </c>
       <c r="D22" s="4">
-        <v>2.1311475409836067</v>
+        <v>2.1311475409836098</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" si="0"/>
-        <v>-0.10079042237617253</v>
+        <v>-0.12148610882788102</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" si="1"/>
-        <v>-1.5272611433752361</v>
+        <v>-1.4333627308570278</v>
       </c>
       <c r="G22" s="5">
         <f t="shared" si="2"/>
-        <v>-1.6280515657514085</v>
+        <v>-1.5548488396849089</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1087,25 +1093,25 @@
         <v>23</v>
       </c>
       <c r="B23" s="4">
-        <v>0.50539291217257321</v>
+        <v>0.57835218093699503</v>
       </c>
       <c r="C23" s="4">
-        <v>0.61503759398496238</v>
+        <v>0.71019108280254795</v>
       </c>
       <c r="D23" s="4">
-        <v>2.1481481481481484</v>
+        <v>2.1481481481481501</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" si="0"/>
-        <v>-0.10964468181238918</v>
+        <v>-0.13183890186555292</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" si="1"/>
-        <v>-1.533110554163186</v>
+        <v>-1.4379570653456022</v>
       </c>
       <c r="G23" s="5">
         <f t="shared" si="2"/>
-        <v>-1.6427552359755753</v>
+        <v>-1.5697959672111552</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1113,25 +1119,25 @@
         <v>24</v>
       </c>
       <c r="B24" s="4">
-        <v>0.5367047308319739</v>
+        <v>0.61578044596912496</v>
       </c>
       <c r="C24" s="4">
-        <v>0.63312693498452011</v>
+        <v>0.73234811165845604</v>
       </c>
       <c r="D24" s="4">
-        <v>2.0753968253968256</v>
+        <v>2.07539682539683</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" si="0"/>
-        <v>-9.6422204152546209E-2</v>
+        <v>-0.11656766568933108</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" si="1"/>
-        <v>-1.4422698904123055</v>
+        <v>-1.343048713738374</v>
       </c>
       <c r="G24" s="5">
         <f t="shared" si="2"/>
-        <v>-1.5386920945648517</v>
+        <v>-1.4596163794277051</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1139,25 +1145,25 @@
         <v>25</v>
       </c>
       <c r="B25" s="4">
-        <v>0.48344370860927149</v>
+        <v>0.5</v>
       </c>
       <c r="C25" s="4">
-        <v>0.54258675078864349</v>
+        <v>0.57487922705313999</v>
       </c>
       <c r="D25" s="4">
-        <v>1.2620689655172412</v>
+        <v>1.2591743119266099</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" si="0"/>
-        <v>-5.9143042179371996E-2</v>
+        <v>-7.4879227053139985E-2</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" si="1"/>
-        <v>-0.71948221472859775</v>
+        <v>-0.68429508487346991</v>
       </c>
       <c r="G25" s="5">
         <f t="shared" si="2"/>
-        <v>-0.77862525690796969</v>
+        <v>-0.75917431192660989</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1165,25 +1171,25 @@
         <v>26</v>
       </c>
       <c r="B26" s="4">
-        <v>0.46458333333333335</v>
+        <v>0.48312236286919802</v>
       </c>
       <c r="C26" s="4">
-        <v>0.51934523809523803</v>
+        <v>0.551671732522796</v>
       </c>
       <c r="D26" s="4">
-        <v>1.1860465116279069</v>
+        <v>1.18105263157895</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" si="0"/>
-        <v>-5.4761904761904678E-2</v>
+        <v>-6.854936965359798E-2</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" si="1"/>
-        <v>-0.66670127353266884</v>
+        <v>-0.62938089905615402</v>
       </c>
       <c r="G26" s="5">
         <f t="shared" si="2"/>
-        <v>-0.72146317829457352</v>
+        <v>-0.69793026870975194</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1191,25 +1197,25 @@
         <v>27</v>
       </c>
       <c r="B27" s="4">
-        <v>0.48974943052391801</v>
+        <v>0.50691244239631295</v>
       </c>
       <c r="C27" s="4">
-        <v>0.55718954248366015</v>
+        <v>0.59098497495826396</v>
       </c>
       <c r="D27" s="4">
-        <v>1.3111111111111111</v>
+        <v>1.30788177339902</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" si="0"/>
-        <v>-6.7440111959742144E-2</v>
+        <v>-8.4072532561951019E-2</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" si="1"/>
-        <v>-0.75392156862745097</v>
+        <v>-0.71689679844075604</v>
       </c>
       <c r="G27" s="5">
         <f t="shared" si="2"/>
-        <v>-0.82136168058719305</v>
+        <v>-0.80096933100270706</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1217,25 +1223,25 @@
         <v>28</v>
       </c>
       <c r="B28" s="4">
-        <v>0.64882943143812699</v>
+        <v>0.67118644067796596</v>
       </c>
       <c r="C28" s="4">
-        <v>0.74940898345153673</v>
+        <v>0.80487804878048796</v>
       </c>
       <c r="D28" s="4">
-        <v>1.5328185328185329</v>
+        <v>1.53281853281853</v>
       </c>
       <c r="E28" s="5">
         <f t="shared" si="0"/>
-        <v>-0.10057955201340973</v>
+        <v>-0.13369160810252201</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" si="1"/>
-        <v>-0.78340954936699614</v>
+        <v>-0.72794048403804201</v>
       </c>
       <c r="G28" s="5">
         <f t="shared" si="2"/>
-        <v>-0.88398910138040587</v>
+        <v>-0.86163209214056402</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1243,25 +1249,25 @@
         <v>29</v>
       </c>
       <c r="B29" s="4">
-        <v>0.48148148148148145</v>
+        <v>0.49779735682819398</v>
       </c>
       <c r="C29" s="4">
-        <v>0.5447409733124019</v>
+        <v>0.57692307692307698</v>
       </c>
       <c r="D29" s="4">
-        <v>1.2579185520361991</v>
+        <v>1.2550790067720099</v>
       </c>
       <c r="E29" s="5">
         <f t="shared" si="0"/>
-        <v>-6.3259491830920445E-2</v>
+        <v>-7.9125720094883001E-2</v>
       </c>
       <c r="F29" s="5">
         <f t="shared" si="1"/>
-        <v>-0.71317757872379717</v>
+        <v>-0.67815592984893291</v>
       </c>
       <c r="G29" s="5">
         <f t="shared" si="2"/>
-        <v>-0.77643707055471767</v>
+        <v>-0.75728164994381597</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1269,25 +1275,25 @@
         <v>30</v>
       </c>
       <c r="B30" s="4">
-        <v>0.80049261083743839</v>
+        <v>0.94933333333333303</v>
       </c>
       <c r="C30" s="4">
-        <v>0.95923261390887293</v>
+        <v>1.15263157894737</v>
       </c>
       <c r="D30" s="4">
-        <v>4.6792452830188678</v>
+        <v>4.6792452830188704</v>
       </c>
       <c r="E30" s="5">
         <f t="shared" si="0"/>
-        <v>-0.15874000307143454</v>
+        <v>-0.20329824561403698</v>
       </c>
       <c r="F30" s="5">
         <f t="shared" si="1"/>
-        <v>-3.7200126691099946</v>
+        <v>-3.5266137040715004</v>
       </c>
       <c r="G30" s="5">
         <f t="shared" si="2"/>
-        <v>-3.8787526721814292</v>
+        <v>-3.7299119496855373</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1295,25 +1301,25 @@
         <v>31</v>
       </c>
       <c r="B31" s="4">
-        <v>0.42420027816411682</v>
+        <v>0.48405797101449299</v>
       </c>
       <c r="C31" s="4">
-        <v>0.44883720930232557</v>
+        <v>0.51213592233009697</v>
       </c>
       <c r="D31" s="4">
-        <v>1.5656934306569346</v>
+        <v>1.5656934306569299</v>
       </c>
       <c r="E31" s="5">
         <f t="shared" ref="E31:E32" si="3">B31-C31</f>
-        <v>-2.4636931138208751E-2</v>
+        <v>-2.8077951315603977E-2</v>
       </c>
       <c r="F31" s="5">
         <f t="shared" ref="F31:F32" si="4">C31-D31</f>
-        <v>-1.1168562213546089</v>
+        <v>-1.0535575083268329</v>
       </c>
       <c r="G31" s="5">
         <f t="shared" si="2"/>
-        <v>-1.1414931524928178</v>
+        <v>-1.0816354596424369</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1321,25 +1327,25 @@
         <v>32</v>
       </c>
       <c r="B32" s="4">
-        <v>0.41144414168937327</v>
+        <v>0.47017045454545497</v>
       </c>
       <c r="C32" s="4">
-        <v>0.43714609286523221</v>
+        <v>0.49881796690307301</v>
       </c>
       <c r="D32" s="4">
-        <v>1.6240601503759398</v>
+        <v>1.62406015037594</v>
       </c>
       <c r="E32" s="5">
         <f t="shared" si="3"/>
-        <v>-2.5701951175858939E-2</v>
+        <v>-2.8647512357618032E-2</v>
       </c>
       <c r="F32" s="5">
         <f t="shared" si="4"/>
-        <v>-1.1869140575107076</v>
+        <v>-1.125242183472867</v>
       </c>
       <c r="G32" s="5">
         <f t="shared" si="2"/>
-        <v>-1.2126160086865665</v>
+        <v>-1.153889695830485</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1348,15 +1354,15 @@
       </c>
       <c r="B33" s="4">
         <f>MAX(B4:B32)</f>
-        <v>4.6124999999999998</v>
+        <v>4.9866666666666699</v>
       </c>
       <c r="C33" s="4">
         <f>MAX(C4:C32)</f>
-        <v>6.3661971830985911</v>
+        <v>6.8461538461538503</v>
       </c>
       <c r="D33" s="4">
         <f>MAX(D4:D32)</f>
-        <v>13.161290322580646</v>
+        <v>13.1612903225806</v>
       </c>
       <c r="G33" s="5"/>
     </row>
@@ -1366,15 +1372,15 @@
       </c>
       <c r="B34" s="4">
         <f>MIN(B4:B32)</f>
-        <v>0.34511189634864553</v>
+        <v>0.36198791134989899</v>
       </c>
       <c r="C34" s="4">
         <f>MIN(C4:C32)</f>
-        <v>0.40801186943620177</v>
+        <v>0.42257818459191498</v>
       </c>
       <c r="D34" s="4">
         <f>MIN(D4:D32)</f>
-        <v>1.1860465116279069</v>
+        <v>1.18105263157895</v>
       </c>
     </row>
   </sheetData>
